--- a/biology/Botanique/Trophée_Duval-Leroy/Trophée_Duval-Leroy.xlsx
+++ b/biology/Botanique/Trophée_Duval-Leroy/Trophée_Duval-Leroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Duval-Leroy</t>
+          <t>Trophée_Duval-Leroy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Trophée Duval-Leroy est un concours de sommellerie français pour les sommeliers de moins de 24 ans. Ce concours a succédé au Trophée Ruinart ayant cessé en 2007.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Duval-Leroy</t>
+          <t>Trophée_Duval-Leroy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Édition 2009</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première édition de ce concours a eu lieu en 2009[1] et a rassemblé 168 participants[2].
-L'Union de la sommellerie française a organisé les épreuves de présélections et amené le nombre de demi-finalistes à 12 candidats[3]. La demi-finale puis la finale étaient organisées les 8 et 9 novembre 2009 en Champagne, à Vertus, dans la côte des blancs, lieu emblématique de la maison Duval-Leroy depuis la création de la maison de champagne en 1859[4]. 
-Parmi les 4 finalistes : Jonathan Bauer-Monneret (Constance Belle Mare Plage à l'Ile Maurice), Vincent Drubay (L'Envie du Sud à Toulouse), Mikael Grou (Hôtel Georges V à Paris) et Guillaume Husson (Maison Decoret à Vichy)[5]; Jonathan Bauer l'a emporté[6] après une dernière série d'épreuves en public.
-En 2019, Charlotte Guyot devient la première femme à remporter le Trophée Duval-Leroy[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première édition de ce concours a eu lieu en 2009 et a rassemblé 168 participants.
+L'Union de la sommellerie française a organisé les épreuves de présélections et amené le nombre de demi-finalistes à 12 candidats. La demi-finale puis la finale étaient organisées les 8 et 9 novembre 2009 en Champagne, à Vertus, dans la côte des blancs, lieu emblématique de la maison Duval-Leroy depuis la création de la maison de champagne en 1859. 
+Parmi les 4 finalistes : Jonathan Bauer-Monneret (Constance Belle Mare Plage à l'Ile Maurice), Vincent Drubay (L'Envie du Sud à Toulouse), Mikael Grou (Hôtel Georges V à Paris) et Guillaume Husson (Maison Decoret à Vichy); Jonathan Bauer l'a emporté après une dernière série d'épreuves en public.
+En 2019, Charlotte Guyot devient la première femme à remporter le Trophée Duval-Leroy.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Duval-Leroy</t>
+          <t>Trophée_Duval-Leroy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
